--- a/biology/Médecine/1245_en_santé_et_médecine/1245_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1245_en_santé_et_médecine/1245_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1245_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1245_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1245 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1245_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1245_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,15 +523,17 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Sous le nom de Terra de loco cinerum (« Lieu des cendres »), première mention du « Jardin des apothicaires », terrain qu'occuperont les bâtiments de la communauté des maîtres apothicaires de 1629 à 1803, puis de l'École de pharmacie jusqu'en 1882[2],[3].
-Le pape Innocent IV autorise le chapitre de la cathédrale Saint-André de Bordeaux à faire construire une maison « pour y soigner les pauvres malades[4] ».
-Le médecin, naturaliste et théologien Albert le Grand est nommé maître régent de théologie à l'université de Paris[5].
-Les frères et sœurs de l'hospice Comtesse adoptent la règle de saint Augustin et se donnent pour mission « de soigner les corps et de soulager les âmes[6] ».
-L'existence d'officines de pharmacien est attestée au Mans, dans le comté du Maine, où « mention est faite de la maison de « maître Jean, apothicaire » (magistri Johannis apothecarii[7]) ».
-Un hôpital, tenu à Poligny, en Franche-Comté, par les frères du Saint-Esprit, est mentionné dans un acte de donation[8].
-Une bulle du pape Innocent IV, tout en confirmant les privilèges de l'hôtel-Dieu de Lyon, « accorde une indulgence plénière à ceux qui visiteraient cet hôpital depuis le dimanche des Rameaux jusqu'au lendemain des fêtes de Pâques[9] ».</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Sous le nom de Terra de loco cinerum (« Lieu des cendres »), première mention du « Jardin des apothicaires », terrain qu'occuperont les bâtiments de la communauté des maîtres apothicaires de 1629 à 1803, puis de l'École de pharmacie jusqu'en 1882,.
+Le pape Innocent IV autorise le chapitre de la cathédrale Saint-André de Bordeaux à faire construire une maison « pour y soigner les pauvres malades ».
+Le médecin, naturaliste et théologien Albert le Grand est nommé maître régent de théologie à l'université de Paris.
+Les frères et sœurs de l'hospice Comtesse adoptent la règle de saint Augustin et se donnent pour mission « de soigner les corps et de soulager les âmes ».
+L'existence d'officines de pharmacien est attestée au Mans, dans le comté du Maine, où « mention est faite de la maison de « maître Jean, apothicaire » (magistri Johannis apothecarii) ».
+Un hôpital, tenu à Poligny, en Franche-Comté, par les frères du Saint-Esprit, est mentionné dans un acte de donation.
+Une bulle du pape Innocent IV, tout en confirmant les privilèges de l'hôtel-Dieu de Lyon, « accorde une indulgence plénière à ceux qui visiteraient cet hôpital depuis le dimanche des Rameaux jusqu'au lendemain des fêtes de Pâques ».</t>
         </is>
       </c>
     </row>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1245_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1245_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,9 +561,11 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1245 ou 1246 : parution des Vies de médecins de l'historien Ibn Abi Usaybi'a, compilation de plus de quatre cents biographies de savants, rédigée en 1242[10],[11].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1245 ou 1246 : parution des Vies de médecins de l'historien Ibn Abi Usaybi'a, compilation de plus de quatre cents biographies de savants, rédigée en 1242,.</t>
         </is>
       </c>
     </row>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1245_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1245_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,10 +593,12 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Fl. Aldemarus, médecin de l'abbaye de Figeac[12], B. de Belim, médecin de l'archevêque de Narbonne[12] et Jean le Begouin, barbier, bienfaiteur du prieuré de Saint-Victeur du Mans[13].
-Fl. Dreux, bourgeois de Bourg-le-Roi dans le comté du Maine, peut-être médecin[12].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Fl. Aldemarus, médecin de l'abbaye de Figeac, B. de Belim, médecin de l'archevêque de Narbonne et Jean le Begouin, barbier, bienfaiteur du prieuré de Saint-Victeur du Mans.
+Fl. Dreux, bourgeois de Bourg-le-Roi dans le comté du Maine, peut-être médecin.</t>
         </is>
       </c>
     </row>
@@ -590,7 +608,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1245_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1245_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,11 +626,13 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Pierre d'Aspelt (mort en 1320), prêtre et médecin, archevêque de Mayence, fondateur de la chartreuse de l'Archange-Saint-Michel[14].
-Avant 1245 : Martin Durand (mort à une date inconnue), médecin, fondateur d'une chapellenie à Mende, en Gévaudan[15].
-Vers 1245 : Lanfranc de Milan (mort en 1306), médecin et chirurgien italien[16].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Pierre d'Aspelt (mort en 1320), prêtre et médecin, archevêque de Mayence, fondateur de la chartreuse de l'Archange-Saint-Michel.
+Avant 1245 : Martin Durand (mort à une date inconnue), médecin, fondateur d'une chapellenie à Mende, en Gévaudan.
+Vers 1245 : Lanfranc de Milan (mort en 1306), médecin et chirurgien italien.</t>
         </is>
       </c>
     </row>
@@ -622,7 +642,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1245_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1245_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -640,10 +660,12 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1245 au plus tôt : Gilles de Portugal ou de Santarem (né en 1184), dominicain, prieur provincial d'Espagne, étudia la médecine à Paris, auteur d'une traduction latine de Rhazès et d'au moins un autre ouvrage à caractère médical[15].
-Vers 1245-1247 : Gilbert de Mesviler (né à une date inconnue), chanoine d'Amiens, peut-être médecin[12].</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1245 au plus tôt : Gilles de Portugal ou de Santarem (né en 1184), dominicain, prieur provincial d'Espagne, étudia la médecine à Paris, auteur d'une traduction latine de Rhazès et d'au moins un autre ouvrage à caractère médical.
+Vers 1245-1247 : Gilbert de Mesviler (né à une date inconnue), chanoine d'Amiens, peut-être médecin.</t>
         </is>
       </c>
     </row>
